--- a/Lista de electrodos.xlsx
+++ b/Lista de electrodos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\Studium\7. Semester - Praxis\voltametria\Sarah\Messungen und Programm im Labor hoy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\Studium\7. Semester - Praxis\voltametria\Sarah\new procesamiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253304E9-680A-48A5-AE3D-87A09044E64B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F3C09F-4A30-4767-847E-FE56DFC9E2CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{D50EDD56-BE63-40A6-AE97-D6BC2816C007}"/>
+    <workbookView xWindow="5760" yWindow="3540" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{D50EDD56-BE63-40A6-AE97-D6BC2816C007}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
   <si>
     <t>Fecha del último cambio</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>en nueva función después de leer los archivos</t>
+  </si>
+  <si>
+    <t>hecho -sarah</t>
+  </si>
+  <si>
+    <t>version 4: sacar unos sweeps!</t>
   </si>
 </sst>
 </file>
@@ -743,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F04C2CC-C7DA-48A1-975F-3E6A374F310F}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,7 +769,7 @@
     <col min="10" max="10" width="24.109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
@@ -772,11 +778,11 @@
       <c r="D1" s="28"/>
       <c r="E1" s="20"/>
       <c r="F1" s="20">
-        <v>43558</v>
+        <v>43560</v>
       </c>
       <c r="G1" s="20"/>
     </row>
-    <row r="2" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -785,7 +791,7 @@
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
@@ -798,7 +804,7 @@
       </c>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -807,7 +813,7 @@
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:10" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -831,7 +837,7 @@
       <c r="I5" s="31"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -853,7 +859,7 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -875,7 +881,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -899,7 +905,7 @@
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:10" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -926,8 +932,11 @@
       <c r="J9" s="15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -949,7 +958,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:10" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>6</v>
       </c>
@@ -973,7 +982,7 @@
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:10" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>7</v>
       </c>
@@ -999,7 +1008,7 @@
       </c>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -1021,7 +1030,7 @@
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -1043,7 +1052,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -1065,7 +1074,7 @@
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -1512,64 +1521,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF267DF-43D7-4EC4-BAFA-47EA465D0FEC}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="H6" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Lista de electrodos.xlsx
+++ b/Lista de electrodos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\Studium\7. Semester - Praxis\voltametria\Sarah\new procesamiento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\GitHub\voltimetria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F3C09F-4A30-4767-847E-FE56DFC9E2CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADD425B-A7D7-4D42-89CB-189F5BA3F496}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3540" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{D50EDD56-BE63-40A6-AE97-D6BC2816C007}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
   <si>
     <t>Fecha del último cambio</t>
   </si>
@@ -384,6 +384,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -392,6 +401,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -410,29 +428,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -770,48 +770,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26">
         <v>43560</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -826,16 +826,16 @@
       <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="30" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -850,11 +850,11 @@
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
+      <c r="E6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
@@ -872,11 +872,11 @@
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -894,11 +894,11 @@
       <c r="D8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="15" t="s">
         <v>27</v>
       </c>
@@ -918,11 +918,11 @@
       <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="15" t="s">
         <v>25</v>
       </c>
@@ -949,11 +949,11 @@
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -971,11 +971,11 @@
       <c r="D11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="15" t="s">
         <v>23</v>
       </c>
@@ -995,11 +995,11 @@
       <c r="D12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="15" t="s">
         <v>22</v>
       </c>
@@ -1021,11 +1021,11 @@
       <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -1043,11 +1043,11 @@
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -1065,11 +1065,11 @@
       <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -1087,11 +1087,11 @@
       <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -1109,11 +1109,11 @@
       <c r="D17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="15" t="s">
         <v>19</v>
       </c>
@@ -1135,11 +1135,11 @@
       <c r="D18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="15" t="s">
         <v>29</v>
       </c>
@@ -1159,11 +1159,11 @@
       <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
@@ -1179,11 +1179,11 @@
       <c r="D20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
@@ -1193,9 +1193,9 @@
       <c r="B21" s="8"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -1205,9 +1205,9 @@
       <c r="B22" s="8"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -1217,9 +1217,9 @@
       <c r="B23" s="8"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -1229,9 +1229,9 @@
       <c r="B24" s="8"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -1241,9 +1241,9 @@
       <c r="B25" s="8"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -1253,9 +1253,9 @@
       <c r="B26" s="8"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -1265,9 +1265,9 @@
       <c r="B27" s="8"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -1277,9 +1277,9 @@
       <c r="B28" s="8"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -1289,9 +1289,9 @@
       <c r="B29" s="8"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -1301,9 +1301,9 @@
       <c r="B30" s="8"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
@@ -1313,9 +1313,9 @@
       <c r="B31" s="8"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="21"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
@@ -1325,9 +1325,9 @@
       <c r="B32" s="8"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
@@ -1478,6 +1478,26 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="F1:G2"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
@@ -1493,26 +1513,6 @@
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="E16:G16"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="F1:G2"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1523,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF267DF-43D7-4EC4-BAFA-47EA465D0FEC}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1579,6 +1579,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>

--- a/Lista de electrodos.xlsx
+++ b/Lista de electrodos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\GitHub\voltimetria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\Documents\GitHub\voltimetria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADD425B-A7D7-4D42-89CB-189F5BA3F496}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ECB44F-DB7E-4F3A-AF5B-1FFE85589C05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3540" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{D50EDD56-BE63-40A6-AE97-D6BC2816C007}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D50EDD56-BE63-40A6-AE97-D6BC2816C007}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>Fecha del último cambio</t>
   </si>
@@ -170,13 +170,25 @@
   </si>
   <si>
     <t>version 4: sacar unos sweeps!</t>
+  </si>
+  <si>
+    <t>Discrepancia entre versiones</t>
+  </si>
+  <si>
+    <t>Se podria medir devuelta, pero no es la curva tipica</t>
+  </si>
+  <si>
+    <t>Version 1</t>
+  </si>
+  <si>
+    <t>Version 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,8 +210,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +227,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -338,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -383,6 +419,45 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -410,6 +485,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -428,16 +512,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Gut" xfId="1" builtinId="26"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -453,7 +621,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -749,13 +917,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F04C2CC-C7DA-48A1-975F-3E6A374F310F}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:G3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.88671875" style="3" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -769,51 +937,51 @@
     <col min="10" max="10" width="24.109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44">
         <v>43560</v>
       </c>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="25" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:11" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="43"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+    </row>
+    <row r="5" spans="1:13" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -826,117 +994,120 @@
       <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="16" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="73">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="C6" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+    </row>
+    <row r="7" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="73">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="B7" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+    </row>
+    <row r="8" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
         <v>3</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="17">
         <v>43546</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="15" t="s">
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
         <v>4</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="21">
         <v>43549</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="15" t="s">
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="24" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M9" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -949,40 +1120,43 @@
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+    <row r="11" spans="1:13" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
         <v>6</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="17">
         <v>43546</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="15" t="s">
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>7</v>
       </c>
@@ -995,20 +1169,20 @@
       <c r="D12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="15" t="s">
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="23" t="s">
         <v>21</v>
       </c>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -1021,16 +1195,16 @@
       <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -1043,16 +1217,16 @@
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -1065,16 +1239,16 @@
       <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -1087,115 +1261,119 @@
       <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:10" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+    <row r="17" spans="1:10" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
         <v>12</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="17">
         <v>43549</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="15" t="s">
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="1:10" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" s="64" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="57">
         <v>13</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="58">
         <v>43545</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="15" t="s">
+      <c r="F18" s="61"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="J18" s="63"/>
+    </row>
+    <row r="19" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="65">
         <v>14</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="66">
         <v>43552</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
+      <c r="C19" s="67"/>
+      <c r="D19" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="F19" s="69"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+    </row>
+    <row r="20" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27">
         <v>15</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="28">
         <v>43552</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="8"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -1205,9 +1383,9 @@
       <c r="B22" s="8"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -1217,9 +1395,9 @@
       <c r="B23" s="8"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -1229,9 +1407,9 @@
       <c r="B24" s="8"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -1241,9 +1419,9 @@
       <c r="B25" s="8"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -1253,9 +1431,9 @@
       <c r="B26" s="8"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -1265,9 +1443,9 @@
       <c r="B27" s="8"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -1277,9 +1455,9 @@
       <c r="B28" s="8"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -1289,9 +1467,9 @@
       <c r="B29" s="8"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -1301,9 +1479,9 @@
       <c r="B30" s="8"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
@@ -1313,9 +1491,9 @@
       <c r="B31" s="8"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
@@ -1325,9 +1503,9 @@
       <c r="B32" s="8"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
@@ -1523,11 +1701,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF267DF-43D7-4EC4-BAFA-47EA465D0FEC}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">

--- a/Lista de electrodos.xlsx
+++ b/Lista de electrodos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\Studium\7. Semester - Praxis\voltametria\Sarah\new procesamiento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\Documents\GitHub\voltimetria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F3C09F-4A30-4767-847E-FE56DFC9E2CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DEECA3-0310-4940-AB1E-8A98EBF54F38}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3540" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{D50EDD56-BE63-40A6-AE97-D6BC2816C007}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D50EDD56-BE63-40A6-AE97-D6BC2816C007}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
   <si>
     <t>Fecha del último cambio</t>
   </si>
@@ -170,6 +170,21 @@
   </si>
   <si>
     <t>version 4: sacar unos sweeps!</t>
+  </si>
+  <si>
+    <t>22/04</t>
+  </si>
+  <si>
+    <t>No calibra</t>
+  </si>
+  <si>
+    <t>Calibra bien</t>
+  </si>
+  <si>
+    <t>16/04</t>
+  </si>
+  <si>
+    <t>Señal muy baja de calibracion</t>
   </si>
 </sst>
 </file>
@@ -384,6 +399,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -392,6 +416,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -410,34 +443,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Gut" xfId="1" builtinId="26"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -453,7 +468,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -749,13 +764,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F04C2CC-C7DA-48A1-975F-3E6A374F310F}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:G3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.88671875" style="3" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -769,51 +784,51 @@
     <col min="10" max="10" width="24.109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26">
         <v>43560</v>
       </c>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:11" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:13" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -826,18 +841,21 @@
       <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="30" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="M5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -850,16 +868,16 @@
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
+      <c r="E6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -872,16 +890,16 @@
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -894,18 +912,21 @@
       <c r="D8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M8" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>4</v>
       </c>
@@ -918,11 +939,11 @@
       <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="15" t="s">
         <v>25</v>
       </c>
@@ -935,8 +956,11 @@
       <c r="K9" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M9" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -949,16 +973,16 @@
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>6</v>
       </c>
@@ -971,18 +995,21 @@
       <c r="D11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="15" t="s">
         <v>23</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M11" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>7</v>
       </c>
@@ -995,11 +1022,11 @@
       <c r="D12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="15" t="s">
         <v>22</v>
       </c>
@@ -1008,7 +1035,7 @@
       </c>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -1021,16 +1048,16 @@
       <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -1043,16 +1070,16 @@
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -1065,16 +1092,16 @@
       <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -1087,16 +1114,16 @@
       <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:10" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>12</v>
       </c>
@@ -1109,11 +1136,11 @@
       <c r="D17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="15" t="s">
         <v>19</v>
       </c>
@@ -1122,7 +1149,7 @@
       </c>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:10" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>13</v>
       </c>
@@ -1135,11 +1162,11 @@
       <c r="D18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="15" t="s">
         <v>29</v>
       </c>
@@ -1148,7 +1175,7 @@
       </c>
       <c r="J18" s="15"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>14</v>
       </c>
@@ -1159,16 +1186,16 @@
       <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
     </row>
-    <row r="20" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>15</v>
       </c>
@@ -1179,155 +1206,173 @@
       <c r="D20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="8"/>
+      <c r="M20" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>16</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="8"/>
+      <c r="M21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>17</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="8"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>18</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="8"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="8"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="8"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="8"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="8"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="8"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="8"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="8"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="21"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="8"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
@@ -1478,6 +1523,26 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="F1:G2"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
@@ -1493,26 +1558,6 @@
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="E16:G16"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="F1:G2"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1523,11 +1568,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF267DF-43D7-4EC4-BAFA-47EA465D0FEC}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">

--- a/Lista de electrodos.xlsx
+++ b/Lista de electrodos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\Documents\GitHub\voltimetria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DEECA3-0310-4940-AB1E-8A98EBF54F38}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E637C2-1E50-42AA-8F01-A2BF02131D6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D50EDD56-BE63-40A6-AE97-D6BC2816C007}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="52">
   <si>
     <t>Fecha del último cambio</t>
   </si>
@@ -55,9 +55,6 @@
     <t>sí</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>bien</t>
   </si>
   <si>
@@ -67,21 +64,6 @@
     <t>limpiado con alcohol</t>
   </si>
   <si>
-    <t>basura 20.03.2019</t>
-  </si>
-  <si>
-    <t>basura 25.03.2019 - no se vio la fibra, cortado</t>
-  </si>
-  <si>
-    <t>basura 25.03.2019 - pegado con sodio, limpié y no había fibra abajo</t>
-  </si>
-  <si>
-    <t>basura 27.03.2019 - no se vio la fibra, cortado</t>
-  </si>
-  <si>
-    <t>pretrat_2 a 20microA</t>
-  </si>
-  <si>
     <t>forma triangular, quemarlo?</t>
   </si>
   <si>
@@ -124,9 +106,6 @@
     <t>version 1:no Backgroud set in 0</t>
   </si>
   <si>
-    <t>03,04,2019</t>
-  </si>
-  <si>
     <t>To do:</t>
   </si>
   <si>
@@ -185,6 +164,30 @@
   </si>
   <si>
     <t>Señal muy baja de calibracion</t>
+  </si>
+  <si>
+    <t>Matlab nuevo protocolo</t>
+  </si>
+  <si>
+    <t>No funciona</t>
+  </si>
+  <si>
+    <t>Señal ruidosa y discriminacion maso menos</t>
+  </si>
+  <si>
+    <t>Señal ruidosa pero buena discriminacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1:buena discriminacion </t>
+  </si>
+  <si>
+    <t>V2: maso menos</t>
+  </si>
+  <si>
+    <t>V1:Señal ruidosa y discriminacion maso menos</t>
+  </si>
+  <si>
+    <t>V2:señal ruidosa, mala discriminacion</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +227,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -353,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -399,6 +420,48 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -407,47 +470,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -764,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F04C2CC-C7DA-48A1-975F-3E6A374F310F}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,53 +894,56 @@
     <col min="8" max="8" width="29.109375" style="13" customWidth="1"/>
     <col min="9" max="9" width="23.88671875" style="13" customWidth="1"/>
     <col min="10" max="10" width="24.109375" style="13" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" customWidth="1"/>
+    <col min="15" max="15" width="29.109375" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26">
-        <v>43560</v>
-      </c>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+    <row r="1" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20">
+        <v>43529</v>
+      </c>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="25" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:13" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:17" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -839,99 +954,129 @@
         <v>5</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="16" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="32"/>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
+        <v>3</v>
+      </c>
+      <c r="B6" s="34">
+        <v>43546</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="M6" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="64" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="57">
+        <v>4</v>
+      </c>
+      <c r="B7" s="58">
+        <v>43549</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
-      <c r="M5" t="s">
+      <c r="J7" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="64" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="8" spans="1:17" s="64" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="57">
+        <v>6</v>
+      </c>
+      <c r="B8" s="58">
+        <v>43546</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>3</v>
-      </c>
-      <c r="B8" s="10">
+      <c r="B9" s="10">
         <v>43546</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="M8" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>4</v>
-      </c>
-      <c r="B9" s="10">
-        <v>43549</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>6</v>
@@ -939,55 +1084,51 @@
       <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
+      <c r="E9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>5</v>
-      </c>
-      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:17" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>12</v>
+      </c>
+      <c r="B10" s="10">
+        <v>43549</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:17" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B11" s="10">
-        <v>43546</v>
+        <v>43545</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>6</v>
@@ -995,387 +1136,283 @@
       <c r="D11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
+      <c r="E11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="J11" s="15"/>
-      <c r="M11" s="12" t="s">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10">
+        <v>43552</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="M13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="41">
+        <v>16</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="M14" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" s="48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="49">
+        <v>17</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="O15" s="56" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>7</v>
-      </c>
-      <c r="B12" s="10">
-        <v>43546</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>8</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>9</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>10</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q15" s="56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+        <v>42</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:13" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>12</v>
-      </c>
-      <c r="B17" s="10">
-        <v>43549</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="1:13" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>13</v>
-      </c>
-      <c r="B18" s="10">
-        <v>43545</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>14</v>
-      </c>
-      <c r="B19" s="8">
-        <v>43552</v>
-      </c>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
     </row>
-    <row r="20" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>15</v>
-      </c>
-      <c r="B20" s="10">
-        <v>43552</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="M20" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>16</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>49</v>
-      </c>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
-      <c r="M21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>17</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>49</v>
-      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>18</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>49</v>
-      </c>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="8"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="8"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
@@ -1465,99 +1502,36 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
+  <mergeCells count="28">
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E15:G15"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E14:G14"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
     <mergeCell ref="F1:G2"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1576,61 +1550,61 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Lista de electrodos.xlsx
+++ b/Lista de electrodos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\Documents\GitHub\voltimetria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E637C2-1E50-42AA-8F01-A2BF02131D6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF692D5-E8EC-4DFB-BE13-C4C1B2A39372}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D50EDD56-BE63-40A6-AE97-D6BC2816C007}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="63">
   <si>
     <t>Fecha del último cambio</t>
   </si>
@@ -188,13 +188,46 @@
   </si>
   <si>
     <t>V2:señal ruidosa, mala discriminacion</t>
+  </si>
+  <si>
+    <t>15/5</t>
+  </si>
+  <si>
+    <t>Version 1: ruidoso pero bueno</t>
+  </si>
+  <si>
+    <t>Version1: mal para 100, pone nada con un pico mayor</t>
+  </si>
+  <si>
+    <t>Version 1:picos muy cerca</t>
+  </si>
+  <si>
+    <t>Version 2: malo</t>
+  </si>
+  <si>
+    <t>17/5 no calibra</t>
+  </si>
+  <si>
+    <t>Version 3: buena discriminacion, no es smooth</t>
+  </si>
+  <si>
+    <t>Version 2: hay una continua extraña</t>
+  </si>
+  <si>
+    <t>Version1:malo</t>
+  </si>
+  <si>
+    <t>Version 1:malo</t>
+  </si>
+  <si>
+    <t>Version 2:malo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +249,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -231,12 +270,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -244,6 +277,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -419,6 +458,48 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -437,6 +518,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,13 +536,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -461,6 +551,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -470,50 +569,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -536,31 +644,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -878,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F04C2CC-C7DA-48A1-975F-3E6A374F310F}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,48 +983,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36">
         <v>43529</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:17" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -956,16 +1039,16 @@
       <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="30" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="54"/>
       <c r="M5" t="s">
         <v>39</v>
       </c>
@@ -973,101 +1056,101 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="40" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
+    <row r="6" spans="1:17" s="73" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="66">
         <v>3</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="67">
         <v>43546</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39" t="s">
+      <c r="F6" s="70"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="M6" s="40" t="s">
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="M6" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="O6" s="73" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="64" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="57">
+    <row r="7" spans="1:17" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="26">
         <v>4</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="27">
         <v>43549</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63" t="s">
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="63" t="s">
+      <c r="I7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="64" t="s">
+      <c r="K7" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="64" t="s">
+      <c r="M7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="64" t="s">
+      <c r="O7" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="64" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="57">
+    <row r="8" spans="1:17" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="26">
         <v>6</v>
       </c>
-      <c r="B8" s="58">
+      <c r="B8" s="27">
         <v>43546</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="63" t="s">
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65" t="s">
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="64" t="s">
+      <c r="O8" s="30" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1084,11 +1167,11 @@
       <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="15" t="s">
         <v>16</v>
       </c>
@@ -1110,11 +1193,11 @@
       <c r="D10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="15" t="s">
         <v>13</v>
       </c>
@@ -1136,11 +1219,11 @@
       <c r="D11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="15" t="s">
         <v>23</v>
       </c>
@@ -1154,9 +1237,9 @@
       <c r="B12" s="8"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -1172,11 +1255,11 @@
       <c r="D13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
@@ -1187,50 +1270,54 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+    <row r="14" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
         <v>16</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="M14" s="48" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="M14" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="48" t="s">
+      <c r="O14" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="48" t="s">
+      <c r="Q14" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49">
+    <row r="15" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="74">
         <v>17</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="O15" s="56" t="s">
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="80"/>
+      <c r="O15" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="Q15" s="56" t="s">
+      <c r="Q15" s="81" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1243,58 +1330,86 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+    <row r="17" spans="1:10" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <v>19</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>21</v>
+      </c>
       <c r="B18" s="8"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="14"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+    <row r="19" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="58">
+        <v>22</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="64"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="2">
+        <v>23</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="14"/>
+      <c r="E20" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="19" t="s">
+        <v>53</v>
+      </c>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
     </row>
@@ -1303,9 +1418,9 @@
       <c r="B21" s="8"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -1315,9 +1430,9 @@
       <c r="B22" s="8"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -1327,9 +1442,9 @@
       <c r="B23" s="8"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -1339,9 +1454,9 @@
       <c r="B24" s="8"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -1351,9 +1466,9 @@
       <c r="B25" s="8"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>

--- a/Lista de electrodos.xlsx
+++ b/Lista de electrodos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\Documents\GitHub\voltimetria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF692D5-E8EC-4DFB-BE13-C4C1B2A39372}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ECB44F-DB7E-4F3A-AF5B-1FFE85589C05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D50EDD56-BE63-40A6-AE97-D6BC2816C007}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>Fecha del último cambio</t>
   </si>
@@ -55,6 +55,9 @@
     <t>sí</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>bien</t>
   </si>
   <si>
@@ -64,6 +67,21 @@
     <t>limpiado con alcohol</t>
   </si>
   <si>
+    <t>basura 20.03.2019</t>
+  </si>
+  <si>
+    <t>basura 25.03.2019 - no se vio la fibra, cortado</t>
+  </si>
+  <si>
+    <t>basura 25.03.2019 - pegado con sodio, limpié y no había fibra abajo</t>
+  </si>
+  <si>
+    <t>basura 27.03.2019 - no se vio la fibra, cortado</t>
+  </si>
+  <si>
+    <t>pretrat_2 a 20microA</t>
+  </si>
+  <si>
     <t>forma triangular, quemarlo?</t>
   </si>
   <si>
@@ -106,6 +124,9 @@
     <t>version 1:no Backgroud set in 0</t>
   </si>
   <si>
+    <t>03,04,2019</t>
+  </si>
+  <si>
     <t>To do:</t>
   </si>
   <si>
@@ -151,76 +172,16 @@
     <t>version 4: sacar unos sweeps!</t>
   </si>
   <si>
-    <t>22/04</t>
-  </si>
-  <si>
-    <t>No calibra</t>
-  </si>
-  <si>
-    <t>Calibra bien</t>
-  </si>
-  <si>
-    <t>16/04</t>
-  </si>
-  <si>
-    <t>Señal muy baja de calibracion</t>
-  </si>
-  <si>
-    <t>Matlab nuevo protocolo</t>
-  </si>
-  <si>
-    <t>No funciona</t>
-  </si>
-  <si>
-    <t>Señal ruidosa y discriminacion maso menos</t>
-  </si>
-  <si>
-    <t>Señal ruidosa pero buena discriminacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V1:buena discriminacion </t>
-  </si>
-  <si>
-    <t>V2: maso menos</t>
-  </si>
-  <si>
-    <t>V1:Señal ruidosa y discriminacion maso menos</t>
-  </si>
-  <si>
-    <t>V2:señal ruidosa, mala discriminacion</t>
-  </si>
-  <si>
-    <t>15/5</t>
-  </si>
-  <si>
-    <t>Version 1: ruidoso pero bueno</t>
-  </si>
-  <si>
-    <t>Version1: mal para 100, pone nada con un pico mayor</t>
-  </si>
-  <si>
-    <t>Version 1:picos muy cerca</t>
-  </si>
-  <si>
-    <t>Version 2: malo</t>
-  </si>
-  <si>
-    <t>17/5 no calibra</t>
-  </si>
-  <si>
-    <t>Version 3: buena discriminacion, no es smooth</t>
-  </si>
-  <si>
-    <t>Version 2: hay una continua extraña</t>
-  </si>
-  <si>
-    <t>Version1:malo</t>
-  </si>
-  <si>
-    <t>Version 1:malo</t>
-  </si>
-  <si>
-    <t>Version 2:malo</t>
+    <t>Discrepancia entre versiones</t>
+  </si>
+  <si>
+    <t>Se podria medir devuelta, pero no es la curva tipica</t>
+  </si>
+  <si>
+    <t>Version 1</t>
+  </si>
+  <si>
+    <t>Version 2</t>
   </si>
 </sst>
 </file>
@@ -270,19 +231,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -458,6 +419,167 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -467,183 +589,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -959,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F04C2CC-C7DA-48A1-975F-3E6A374F310F}">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -977,56 +935,53 @@
     <col min="8" max="8" width="29.109375" style="13" customWidth="1"/>
     <col min="9" max="9" width="23.88671875" style="13" customWidth="1"/>
     <col min="10" max="10" width="24.109375" style="13" customWidth="1"/>
-    <col min="14" max="14" width="14.77734375" customWidth="1"/>
-    <col min="15" max="15" width="29.109375" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36">
-        <v>43529</v>
-      </c>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+    <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44">
+        <v>43560</v>
+      </c>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="35" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="35"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-    </row>
-    <row r="5" spans="1:17" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="43"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+    </row>
+    <row r="5" spans="1:13" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1037,390 +992,388 @@
         <v>5</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="52" t="s">
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="73">
+        <v>1</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+    </row>
+    <row r="7" spans="1:13" s="80" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="73">
+        <v>2</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54"/>
-      <c r="M5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="66">
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+    </row>
+    <row r="8" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
         <v>3</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B8" s="17">
         <v>43546</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="M6" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6" s="73" t="s">
+      <c r="E8" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>4</v>
+      </c>
+      <c r="B9" s="21">
+        <v>43549</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="24" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="26">
-        <v>4</v>
-      </c>
-      <c r="B7" s="27">
-        <v>43549</v>
-      </c>
-      <c r="C7" s="28" t="s">
+      <c r="M9" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
         <v>6</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="B11" s="17">
+        <v>43546</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" s="30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="26">
+      <c r="D11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="27">
-        <v>43546</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10">
-        <v>43546</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:17" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>12</v>
-      </c>
-      <c r="B10" s="10">
-        <v>43549</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:17" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>13</v>
-      </c>
-      <c r="B11" s="10">
-        <v>43545</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>6</v>
-      </c>
       <c r="E11" s="49" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F11" s="50"/>
       <c r="G11" s="51"/>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10">
+        <v>43546</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>15</v>
-      </c>
-      <c r="B13" s="10">
-        <v>43552</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="49" t="s">
+      <c r="I12" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>10</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="M13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
-        <v>16</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="M14" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q14" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="74">
-        <v>17</v>
-      </c>
-      <c r="B15" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="80"/>
-      <c r="O15" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q15" s="81" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:10" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
+    <row r="17" spans="1:10" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>12</v>
+      </c>
+      <c r="B17" s="17">
+        <v>43549</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>21</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58">
-        <v>22</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="64"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>23</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+      <c r="I17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" s="64" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="57">
+        <v>13</v>
+      </c>
+      <c r="B18" s="58">
+        <v>43545</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="61"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="63"/>
+    </row>
+    <row r="19" spans="1:10" s="72" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="65">
+        <v>14</v>
+      </c>
+      <c r="B19" s="66">
+        <v>43552</v>
+      </c>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="69"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+    </row>
+    <row r="20" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27">
+        <v>15</v>
+      </c>
+      <c r="B20" s="28">
+        <v>43552</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="8"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -1430,9 +1383,9 @@
       <c r="B22" s="8"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -1442,9 +1395,9 @@
       <c r="B23" s="8"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -1454,9 +1407,9 @@
       <c r="B24" s="8"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -1466,68 +1419,96 @@
       <c r="B25" s="8"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
@@ -1617,36 +1598,99 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="E20:G20"/>
+  <mergeCells count="35">
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
+    <mergeCell ref="F1:G2"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E27:G27"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="F1:G2"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E20:G20"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1657,69 +1701,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF267DF-43D7-4EC4-BAFA-47EA465D0FEC}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Lista de electrodos.xlsx
+++ b/Lista de electrodos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\Documents\GitHub\voltimetria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF692D5-E8EC-4DFB-BE13-C4C1B2A39372}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC964F4-6D82-476B-89EE-8AF0638E2656}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D50EDD56-BE63-40A6-AE97-D6BC2816C007}"/>
+    <workbookView xWindow="5292" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{D50EDD56-BE63-40A6-AE97-D6BC2816C007}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>Fecha del último cambio</t>
   </si>
@@ -500,84 +500,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -585,15 +507,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -609,15 +522,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -631,19 +535,115 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F04C2CC-C7DA-48A1-975F-3E6A374F310F}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -983,48 +983,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66">
         <v>43529</v>
       </c>
-      <c r="G1" s="36"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="35" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="35"/>
+      <c r="G3" s="65"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="5" spans="1:17" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -1039,16 +1039,16 @@
       <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="52" t="s">
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
       <c r="M5" t="s">
         <v>39</v>
       </c>
@@ -1056,33 +1056,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="66">
+    <row r="6" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37">
         <v>3</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="38">
         <v>43546</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="72" t="s">
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="M6" s="73" t="s">
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="M6" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="73" t="s">
+      <c r="O6" s="41" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1099,11 +1099,11 @@
       <c r="D7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="79"/>
       <c r="H7" s="29" t="s">
         <v>19</v>
       </c>
@@ -1136,11 +1136,11 @@
       <c r="D8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="79"/>
       <c r="H8" s="29" t="s">
         <v>17</v>
       </c>
@@ -1167,11 +1167,11 @@
       <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
       <c r="H9" s="15" t="s">
         <v>16</v>
       </c>
@@ -1193,11 +1193,11 @@
       <c r="D10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="15" t="s">
         <v>13</v>
       </c>
@@ -1219,11 +1219,11 @@
       <c r="D11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="15" t="s">
         <v>23</v>
       </c>
@@ -1237,9 +1237,9 @@
       <c r="B12" s="8"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -1255,11 +1255,11 @@
       <c r="D13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
@@ -1279,9 +1279,9 @@
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
@@ -1295,29 +1295,29 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="74">
+    <row r="15" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42">
         <v>17</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80" t="s">
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="80" t="s">
+      <c r="I15" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="80"/>
-      <c r="O15" s="81" t="s">
+      <c r="J15" s="45"/>
+      <c r="O15" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="Q15" s="81" t="s">
+      <c r="Q15" s="46" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1330,9 +1330,9 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -1344,9 +1344,9 @@
       <c r="B17" s="22"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
       <c r="H17" s="24" t="s">
         <v>60</v>
       </c>
@@ -1364,34 +1364,34 @@
       <c r="B18" s="8"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
       <c r="H18" s="14" t="s">
         <v>54</v>
       </c>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
     </row>
-    <row r="19" spans="1:10" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58">
+    <row r="19" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32">
         <v>22</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="64" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="I19" s="64" t="s">
+      <c r="I19" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="64"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
@@ -1402,11 +1402,11 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="77" t="s">
+      <c r="E20" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
       <c r="H20" s="19" t="s">
         <v>53</v>
       </c>
@@ -1418,9 +1418,9 @@
       <c r="B21" s="8"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -1430,9 +1430,9 @@
       <c r="B22" s="8"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -1442,9 +1442,9 @@
       <c r="B23" s="8"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -1454,9 +1454,9 @@
       <c r="B24" s="8"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -1466,9 +1466,9 @@
       <c r="B25" s="8"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="34"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -1619,17 +1619,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="A4:G4"/>
@@ -1642,11 +1636,17 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Lista de electrodos.xlsx
+++ b/Lista de electrodos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\Documents\GitHub\voltimetria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CD0E4C-C3F6-4969-8487-1D1F03159BB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A30564-16F7-4FAD-853E-361DFD85A149}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D50EDD56-BE63-40A6-AE97-D6BC2816C007}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Fecha del último cambio</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>V2: malo entre 100 y 200</t>
+  </si>
+  <si>
+    <t>Medido, evaluacion pendiente</t>
   </si>
 </sst>
 </file>
@@ -334,57 +337,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -392,12 +359,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -416,15 +377,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -444,15 +396,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -468,15 +411,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -490,15 +424,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -512,15 +437,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -534,15 +450,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -556,15 +463,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -587,13 +485,119 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -911,648 +915,631 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F04C2CC-C7DA-48A1-975F-3E6A374F310F}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="11" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="3.44140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="29.109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="23.88671875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="24.109375" style="5" customWidth="1"/>
-    <col min="11" max="13" width="11.5546875" style="6"/>
-    <col min="14" max="14" width="14.77734375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="29.109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="18" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="11.5546875" style="6"/>
+    <col min="1" max="1" width="7.88671875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="11" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="3.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="29.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" style="2" customWidth="1"/>
+    <col min="11" max="13" width="11.5546875" style="3"/>
+    <col min="14" max="14" width="14.77734375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="29.109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="18" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62">
         <v>43591</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="61"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="5" spans="1:13" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15" t="s">
+      <c r="F5" s="65"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:13" s="67" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60">
-        <v>4</v>
-      </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63" t="s">
+      <c r="I5" s="76"/>
+      <c r="J5" s="77"/>
+    </row>
+    <row r="6" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39">
+        <v>6</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="79"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+    </row>
+    <row r="7" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34">
+        <v>11</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-    </row>
-    <row r="7" spans="1:13" s="67" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60">
-        <v>6</v>
-      </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63" t="s">
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+    </row>
+    <row r="11" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39">
+        <v>12</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+    </row>
+    <row r="12" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>13</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29">
+        <v>14</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+    </row>
+    <row r="14" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="39">
+        <v>15</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="79"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+    </row>
+    <row r="15" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29">
+        <v>16</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="44">
+        <v>17</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-    </row>
-    <row r="8" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-    </row>
-    <row r="11" spans="1:13" s="67" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60">
-        <v>11</v>
-      </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-    </row>
-    <row r="12" spans="1:13" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="68">
-        <v>12</v>
-      </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-    </row>
-    <row r="13" spans="1:13" s="51" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44">
-        <v>13</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50" t="s">
+      <c r="F16" s="88"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+    </row>
+    <row r="17" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29">
+        <v>18</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="32"/>
+    </row>
+    <row r="18" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
+        <v>19</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29">
+        <v>20</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-    </row>
-    <row r="14" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52">
-        <v>14</v>
-      </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-    </row>
-    <row r="15" spans="1:13" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="68">
-        <v>15</v>
-      </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-    </row>
-    <row r="16" spans="1:13" s="59" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52">
-        <v>16</v>
-      </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="58"/>
-    </row>
-    <row r="17" spans="1:10" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="76">
-        <v>17</v>
-      </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-    </row>
-    <row r="18" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52">
-        <v>18</v>
-      </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="58"/>
-    </row>
-    <row r="19" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36">
-        <v>19</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52">
-        <v>20</v>
-      </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+    </row>
+    <row r="20" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
+        <v>21</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="84"/>
       <c r="F20" s="85"/>
       <c r="G20" s="86"/>
-      <c r="H20" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-    </row>
-    <row r="21" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36">
-        <v>21</v>
-      </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-    </row>
-    <row r="22" spans="1:10" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36">
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
         <v>22</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-    </row>
-    <row r="23" spans="1:10" s="59" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="52">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="86"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" s="33" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="29">
         <v>23</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+    </row>
+    <row r="23" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29">
+        <v>24</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="55"/>
       <c r="F23" s="56"/>
       <c r="G23" s="57"/>
-      <c r="H23" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-    </row>
-    <row r="24" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="52">
-        <v>24</v>
-      </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
+      <c r="H23" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+    </row>
+    <row r="24" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29">
+        <v>25</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="55"/>
       <c r="F24" s="56"/>
       <c r="G24" s="57"/>
-      <c r="H24" s="58" t="s">
+      <c r="H24" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-    </row>
-    <row r="25" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="52">
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>26</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="15"/>
+    </row>
+    <row r="26" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="29">
+        <v>27</v>
+      </c>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="26">
-        <v>26</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="32" t="s">
-        <v>34</v>
-      </c>
+      <c r="I26" s="32"/>
       <c r="J26" s="32"/>
     </row>
-    <row r="27" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="52">
-        <v>27</v>
-      </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+    <row r="27" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29">
+        <v>28</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="55"/>
       <c r="F27" s="56"/>
       <c r="G27" s="57"/>
-      <c r="H27" s="58" t="s">
+      <c r="H27" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-    </row>
-    <row r="28" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="52">
-        <v>28</v>
-      </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-    </row>
-    <row r="29" spans="1:10" s="83" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+    </row>
+    <row r="28" spans="1:10" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="90">
+        <v>29</v>
+      </c>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="91"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+    </row>
+    <row r="29" spans="1:10" s="92" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="90">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="91"/>
       <c r="C29" s="91"/>
       <c r="D29" s="91"/>
       <c r="E29" s="91" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F29" s="91"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-    </row>
-    <row r="30" spans="1:10" s="83" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="90">
-        <v>30</v>
-      </c>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="91"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="33"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="33"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="33"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="33"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="33"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="33"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="33"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="33"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="33"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="33"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="33"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="33"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="27">
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E15:G15"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
     <mergeCell ref="F1:G2"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E23:G23"/>
     <mergeCell ref="E24:G24"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Lista de electrodos.xlsx
+++ b/Lista de electrodos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\Documents\GitHub\voltimetria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A30564-16F7-4FAD-853E-361DFD85A149}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FDF69B-91D5-4EAC-BDD7-1D3902C4B91C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D50EDD56-BE63-40A6-AE97-D6BC2816C007}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Fecha del último cambio</t>
   </si>
@@ -133,13 +134,19 @@
     <t>Bueno, pero con continua neg y forma poco comoda</t>
   </si>
   <si>
-    <t>V1:malo</t>
-  </si>
-  <si>
-    <t>V2: malo entre 100 y 200</t>
-  </si>
-  <si>
-    <t>Medido, evaluacion pendiente</t>
+    <t>V1:bueno</t>
+  </si>
+  <si>
+    <t>V2: malo entre 300 y 200</t>
+  </si>
+  <si>
+    <t>v1: bueno</t>
+  </si>
+  <si>
+    <t>Mala entre 100 y 200</t>
+  </si>
+  <si>
+    <t>Medico, eval pendiente</t>
   </si>
 </sst>
 </file>
@@ -337,7 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -368,18 +375,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -485,6 +480,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -494,13 +507,31 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -545,42 +576,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -589,16 +584,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -917,13 +902,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F04C2CC-C7DA-48A1-975F-3E6A374F310F}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" style="14" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" style="3" customWidth="1"/>
@@ -941,48 +926,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70">
         <v>43591</v>
       </c>
-      <c r="G1" s="62"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
     </row>
     <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="61" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:13" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -997,41 +982,41 @@
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="75" t="s">
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="77"/>
-    </row>
-    <row r="6" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39">
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
+    </row>
+    <row r="6" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30">
         <v>6</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1041,9 +1026,9 @@
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1053,466 +1038,484 @@
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="82"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34">
+    <row r="10" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30">
         <v>11</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="67" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-    </row>
-    <row r="11" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39">
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35">
         <v>12</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="78" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-    </row>
-    <row r="12" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24">
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+    </row>
+    <row r="12" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
         <v>13</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="27" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-    </row>
-    <row r="13" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29">
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25">
         <v>14</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="32" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-    </row>
-    <row r="14" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39">
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35">
         <v>15</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="78" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-    </row>
-    <row r="15" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29">
+      <c r="F14" s="61"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+    </row>
+    <row r="15" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
         <v>16</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="32" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="32"/>
-    </row>
-    <row r="16" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44">
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25">
         <v>17</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="87" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25">
+        <v>18</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>19</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25">
+        <v>20</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
+        <v>21</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>22</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="25">
         <v>23</v>
       </c>
-      <c r="F16" s="88"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-    </row>
-    <row r="17" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29">
-        <v>18</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="32" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25">
+        <v>24</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25">
+        <v>25</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="40">
+        <v>26</v>
+      </c>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="84"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+    </row>
+    <row r="26" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25">
+        <v>27</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+    </row>
+    <row r="27" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="25">
+        <v>28</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+    </row>
+    <row r="28" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="51">
         <v>29</v>
       </c>
-      <c r="I17" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" s="32"/>
-    </row>
-    <row r="18" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
-        <v>19</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="22" t="s">
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="H28" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="53"/>
+    </row>
+    <row r="29" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="51">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29">
-        <v>20</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="32" t="s">
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="H29" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-    </row>
-    <row r="20" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
-        <v>21</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
-        <v>22</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="86"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-    </row>
-    <row r="22" spans="1:10" s="33" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="29">
-        <v>23</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-    </row>
-    <row r="23" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29">
-        <v>24</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-    </row>
-    <row r="24" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29">
-        <v>25</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
-        <v>26</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="15"/>
-    </row>
-    <row r="26" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29">
-        <v>27</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-    </row>
-    <row r="27" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29">
-        <v>28</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-    </row>
-    <row r="28" spans="1:10" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90">
-        <v>29</v>
-      </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="91"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="93"/>
-    </row>
-    <row r="29" spans="1:10" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="90">
-        <v>30</v>
-      </c>
-      <c r="B29" s="91"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="91"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="F1:G2"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="E11:G11"/>
@@ -1524,22 +1527,6 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E16:G16"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="F1:G2"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Lista de electrodos.xlsx
+++ b/Lista de electrodos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\Documents\GitHub\voltimetria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FDF69B-91D5-4EAC-BDD7-1D3902C4B91C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EAB996-8128-47A6-8AF1-06AB58CA723E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D50EDD56-BE63-40A6-AE97-D6BC2816C007}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
   <si>
     <t>Fecha del último cambio</t>
   </si>
@@ -113,12 +112,6 @@
     <t>Bueno</t>
   </si>
   <si>
-    <t>Version 1: buena</t>
-  </si>
-  <si>
-    <t>Version 2: mala en 100</t>
-  </si>
-  <si>
     <t>V2: buena</t>
   </si>
   <si>
@@ -146,7 +139,7 @@
     <t>Mala entre 100 y 200</t>
   </si>
   <si>
-    <t>Medico, eval pendiente</t>
+    <t>Evaluar</t>
   </si>
 </sst>
 </file>
@@ -449,19 +442,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -489,6 +469,57 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -498,15 +529,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -534,57 +556,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -902,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F04C2CC-C7DA-48A1-975F-3E6A374F310F}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:G6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -926,48 +919,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53">
         <v>43591</v>
       </c>
-      <c r="G1" s="70"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
     </row>
     <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="69" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="69"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:13" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -982,16 +975,16 @@
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="54" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30">
@@ -1000,11 +993,11 @@
       <c r="B6" s="31"/>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
-      <c r="E6" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
+      <c r="E6" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
@@ -1014,9 +1007,9 @@
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1026,9 +1019,9 @@
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1038,9 +1031,9 @@
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="82"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1054,30 +1047,30 @@
       <c r="B10" s="31"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35">
+    <row r="11" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
         <v>12</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
     </row>
     <row r="12" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
@@ -1086,9 +1079,9 @@
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="74"/>
       <c r="H12" s="23" t="s">
         <v>25</v>
       </c>
@@ -1102,9 +1095,9 @@
       <c r="B13" s="26"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="28" t="s">
         <v>25</v>
       </c>
@@ -1118,11 +1111,11 @@
       <c r="B14" s="36"/>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="62"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
@@ -1134,15 +1127,13 @@
       <c r="B15" s="26"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
       <c r="H15" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>27</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I15" s="28"/>
       <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -1152,14 +1143,14 @@
       <c r="B16" s="26"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="59"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
       <c r="H16" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J16" s="28"/>
     </row>
@@ -1170,14 +1161,14 @@
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
       <c r="H17" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J17" s="28"/>
     </row>
@@ -1188,15 +1179,15 @@
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="68"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="77"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -1206,9 +1197,9 @@
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="28" t="s">
         <v>25</v>
       </c>
@@ -1222,25 +1213,28 @@
       <c r="B20" s="16"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="68"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="77"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
+    <row r="21" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="25">
         <v>22</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="68"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="25">
@@ -1249,11 +1243,11 @@
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
       <c r="H22" s="28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
@@ -1265,9 +1259,9 @@
       <c r="B23" s="26"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="51"/>
       <c r="H23" s="28" t="s">
         <v>25</v>
       </c>
@@ -1281,30 +1275,30 @@
       <c r="B24" s="26"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="51"/>
       <c r="H24" s="28" t="s">
         <v>25</v>
       </c>
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
     </row>
-    <row r="25" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40">
+    <row r="25" spans="1:10" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="78">
         <v>26</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="84"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="82"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
     </row>
     <row r="26" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25">
@@ -1313,9 +1307,9 @@
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="59"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
       <c r="H26" s="28" t="s">
         <v>25</v>
       </c>
@@ -1329,9 +1323,9 @@
       <c r="B27" s="26"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="51"/>
       <c r="H27" s="28" t="s">
         <v>25</v>
       </c>
@@ -1339,36 +1333,36 @@
       <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="51">
+      <c r="A28" s="46">
         <v>29</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="H28" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="J28" s="53"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="H28" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="48"/>
     </row>
     <row r="29" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="51">
+      <c r="A29" s="46">
         <v>30</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="H29" s="53" t="s">
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="H29" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
@@ -1500,11 +1494,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="A4:G4"/>
@@ -1516,17 +1516,11 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Lista de electrodos.xlsx
+++ b/Lista de electrodos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\Documents\GitHub\voltimetria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EAB996-8128-47A6-8AF1-06AB58CA723E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D559AB8F-66C6-40BE-8B40-B36E855EEEEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D50EDD56-BE63-40A6-AE97-D6BC2816C007}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Fecha del último cambio</t>
   </si>
@@ -103,12 +103,6 @@
     <t>hecho -sarah</t>
   </si>
   <si>
-    <t>Quemar</t>
-  </si>
-  <si>
-    <t>Medir devuelta</t>
-  </si>
-  <si>
     <t>Bueno</t>
   </si>
   <si>
@@ -139,7 +133,7 @@
     <t>Mala entre 100 y 200</t>
   </si>
   <si>
-    <t>Evaluar</t>
+    <t>Maso</t>
   </si>
 </sst>
 </file>
@@ -174,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,12 +194,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -337,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -429,19 +417,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -469,6 +444,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -476,6 +460,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -496,15 +507,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,64 +522,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -893,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F04C2CC-C7DA-48A1-975F-3E6A374F310F}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,48 +863,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60">
         <v>43591</v>
       </c>
-      <c r="G1" s="53"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:13" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -975,41 +919,37 @@
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="66" t="s">
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68"/>
-    </row>
-    <row r="6" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
-        <v>6</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="46"/>
+    </row>
+    <row r="6" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1019,350 +959,338 @@
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
-        <v>11</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="58" t="s">
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>12</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
-        <v>12</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-    </row>
-    <row r="12" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
         <v>13</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25">
+        <v>14</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30">
+        <v>15</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="49"/>
       <c r="H13" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
     </row>
-    <row r="14" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35">
-        <v>15</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
+    <row r="14" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
+        <v>17</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="28"/>
+      <c r="I15" s="28" t="s">
+        <v>24</v>
+      </c>
       <c r="J15" s="28"/>
     </row>
-    <row r="16" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25">
-        <v>17</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="28"/>
+    <row r="16" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>19</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
       <c r="H17" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="I17" s="28"/>
       <c r="J17" s="28"/>
     </row>
     <row r="18" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="77"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>28</v>
-      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="28" t="s">
-        <v>25</v>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="29" t="s">
+        <v>23</v>
       </c>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
     </row>
-    <row r="20" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
-        <v>21</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+    <row r="20" spans="1:10" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="25">
+        <v>23</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="29" t="s">
-        <v>25</v>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
     </row>
-    <row r="22" spans="1:10" s="29" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
       <c r="H22" s="28" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="51"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="51"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
       <c r="H24" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
     </row>
-    <row r="25" spans="1:10" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="78">
-        <v>26</v>
-      </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="82"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
+    <row r="25" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25">
+        <v>28</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="26" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25">
-        <v>27</v>
-      </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
+      <c r="A26" s="41">
+        <v>29</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="H26" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="43"/>
     </row>
     <row r="27" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
-        <v>28</v>
-      </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-    </row>
-    <row r="28" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="46">
-        <v>29</v>
-      </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="H28" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="48"/>
-    </row>
-    <row r="29" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="46">
+      <c r="A27" s="41">
         <v>30</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="H29" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="H27" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
@@ -1476,51 +1404,33 @@
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-    </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="H5:J5"/>
+  <mergeCells count="25">
+    <mergeCell ref="E21:G21"/>
     <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E13:G13"/>
     <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
     <mergeCell ref="F1:G2"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="E20:G20"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
